--- a/data/trans_dic/P57B_R-Habitat-trans_dic.xlsx
+++ b/data/trans_dic/P57B_R-Habitat-trans_dic.xlsx
@@ -581,13 +581,13 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.1226752664607285</v>
+        <v>0.122359654178792</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.1583211158119786</v>
+        <v>0.1580072990763593</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.1470882491804813</v>
+        <v>0.1463347817086204</v>
       </c>
     </row>
     <row r="6">
@@ -598,13 +598,13 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.1731776259446856</v>
+        <v>0.1732422172069927</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.1980005999777315</v>
+        <v>0.200198922864797</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.1797812197102954</v>
+        <v>0.180691597504705</v>
       </c>
     </row>
     <row r="7">
@@ -619,7 +619,7 @@
         </is>
       </c>
       <c r="C7" s="5" t="n">
-        <v>0.09838251158519871</v>
+        <v>0.09838251158519873</v>
       </c>
       <c r="D7" s="5" t="n">
         <v>0.1610013763508101</v>
@@ -636,13 +636,13 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.07995584824521219</v>
+        <v>0.07996291227290027</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.1429820722403335</v>
+        <v>0.1436586302997831</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.1169554038467803</v>
+        <v>0.1181816544814534</v>
       </c>
     </row>
     <row r="9">
@@ -653,13 +653,13 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.117693991238111</v>
+        <v>0.1182923528758864</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.181374750974348</v>
+        <v>0.1808787864909514</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.14395810100763</v>
+        <v>0.1444080727987069</v>
       </c>
     </row>
     <row r="10">
@@ -691,13 +691,13 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.04155516303845389</v>
+        <v>0.04099946989667187</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.06928740264942895</v>
+        <v>0.06999831745066912</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.05979938736541443</v>
+        <v>0.059593537630868</v>
       </c>
     </row>
     <row r="12">
@@ -708,13 +708,13 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.07501671695013995</v>
+        <v>0.07693575475475029</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.1045167899812625</v>
+        <v>0.1064891960403902</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.08588219028454042</v>
+        <v>0.08489782695308669</v>
       </c>
     </row>
     <row r="13">
@@ -732,10 +732,10 @@
         <v>0.1125209226084298</v>
       </c>
       <c r="D13" s="5" t="n">
-        <v>0.1592896923825955</v>
+        <v>0.1592896923825956</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>0.1373015406654255</v>
+        <v>0.1373015406654254</v>
       </c>
     </row>
     <row r="14">
@@ -746,13 +746,13 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.09427149684611602</v>
+        <v>0.09369369829339616</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.1418737962643766</v>
+        <v>0.1404940474547476</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.1243948128086827</v>
+        <v>0.1238838334298228</v>
       </c>
     </row>
     <row r="15">
@@ -763,13 +763,13 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.1339047636107971</v>
+        <v>0.1338429057853291</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.1781819951626454</v>
+        <v>0.1789410142169206</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.1514671154577289</v>
+        <v>0.1522850495624169</v>
       </c>
     </row>
     <row r="16">
@@ -787,7 +787,7 @@
         <v>0.1021706220805332</v>
       </c>
       <c r="D16" s="5" t="n">
-        <v>0.1475312675094848</v>
+        <v>0.1475312675094847</v>
       </c>
       <c r="E16" s="5" t="n">
         <v>0.1254441700403704</v>
@@ -801,13 +801,13 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>0.09194559555463047</v>
+        <v>0.09326011257788132</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>0.1379396183898319</v>
+        <v>0.1377898445649172</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.1189350111770999</v>
+        <v>0.1191688562675132</v>
       </c>
     </row>
     <row r="18">
@@ -818,13 +818,13 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>0.1136340313038072</v>
+        <v>0.1131820528511616</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>0.1573843814129733</v>
+        <v>0.158588840036393</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.1321030025201212</v>
+        <v>0.133037194885832</v>
       </c>
     </row>
     <row r="19">
@@ -966,13 +966,13 @@
         </is>
       </c>
       <c r="C6" s="6" t="n">
-        <v>83325</v>
+        <v>83110</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>113012</v>
+        <v>112788</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>204901</v>
+        <v>203852</v>
       </c>
     </row>
     <row r="7">
@@ -983,13 +983,13 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>117628</v>
+        <v>117671</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>141336</v>
+        <v>142906</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>250444</v>
+        <v>251712</v>
       </c>
     </row>
     <row r="8">
@@ -1038,13 +1038,13 @@
         </is>
       </c>
       <c r="C10" s="6" t="n">
-        <v>83240</v>
+        <v>83247</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>150612</v>
+        <v>151325</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>244955</v>
+        <v>247523</v>
       </c>
     </row>
     <row r="11">
@@ -1055,13 +1055,13 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>122528</v>
+        <v>123151</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>191053</v>
+        <v>190531</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>301510</v>
+        <v>302453</v>
       </c>
     </row>
     <row r="12">
@@ -1110,13 +1110,13 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>32634</v>
+        <v>32197</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>55524</v>
+        <v>56094</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>94882</v>
+        <v>94555</v>
       </c>
     </row>
     <row r="15">
@@ -1127,13 +1127,13 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>58911</v>
+        <v>60418</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>83755</v>
+        <v>85336</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>136266</v>
+        <v>134704</v>
       </c>
     </row>
     <row r="16">
@@ -1182,13 +1182,13 @@
         </is>
       </c>
       <c r="C18" s="6" t="n">
-        <v>92187</v>
+        <v>91622</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>156357</v>
+        <v>154836</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>258738</v>
+        <v>257676</v>
       </c>
     </row>
     <row r="19">
@@ -1199,13 +1199,13 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>130945</v>
+        <v>130884</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>196372</v>
+        <v>197208</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>315048</v>
+        <v>316750</v>
       </c>
     </row>
     <row r="20">
@@ -1254,13 +1254,13 @@
         </is>
       </c>
       <c r="C22" s="6" t="n">
-        <v>320293</v>
+        <v>324872</v>
       </c>
       <c r="D22" s="6" t="n">
-        <v>506324</v>
+        <v>505775</v>
       </c>
       <c r="E22" s="6" t="n">
-        <v>850876</v>
+        <v>852549</v>
       </c>
     </row>
     <row r="23">
@@ -1271,13 +1271,13 @@
         </is>
       </c>
       <c r="C23" s="6" t="n">
-        <v>395844</v>
+        <v>394270</v>
       </c>
       <c r="D23" s="6" t="n">
-        <v>577699</v>
+        <v>582120</v>
       </c>
       <c r="E23" s="6" t="n">
-        <v>945081</v>
+        <v>951765</v>
       </c>
     </row>
     <row r="24">
